--- a/biology/Médecine/Paul_Chauchard/Paul_Chauchard.xlsx
+++ b/biology/Médecine/Paul_Chauchard/Paul_Chauchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Chauchard, né le 14 juin 1912 à Paris et mort le 27 avril 2003 à Issy-les-Moulineaux[1], est un médecin et écrivain français, chercheur en neurophysiologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Chauchard, né le 14 juin 1912 à Paris et mort le 27 avril 2003 à Issy-les-Moulineaux, est un médecin et écrivain français, chercheur en neurophysiologie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine et docteur ès sciences, il enseigne à la Faculté catholique de Paris et à l’École pratique des hautes études.
 Il est directeur honoraire du laboratoire de neurophysiologie de l'excitabilité, de l'École pratique des hautes études. 
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Le Moteur vivant, coll. « Que sais-je ? », 181, 1945.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Moteur vivant, coll. « Que sais-je ? », 181, 1945.
 Le système nerveux sympathique, Gallimard, collection « L'avenir de la science », 1949.
 L'Influx nerveux et la psychologie, 1949.
 La maîtrise sexuelle : problèmes de la continence et de l'union réservée , Paris, Éditions du Levain, 1950.
@@ -614,17 +633,85 @@
 L'Humanisme et la science.
 Le Progrès sexuel, 1964.
 Vices des vertus, vertus de vices, 1963.
-Hygiène et morale.
-En espagnol
-(es) Trabajo, diversión e higiene mental, (Madrid:  1970).
+Hygiène et morale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Chauchard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Chauchard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En espagnol</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(es) Trabajo, diversión e higiene mental, (Madrid:  1970).
 (es) Conocimiento y dominio de la memoria (1985), Ediciones Mensajero, S.A. Unipersonal.
 (es) Alma o cerebro, Qué es el hombre (1971), Iberoamericanas
 (es) El dominio de sí mismo (1970), Ediciones Guadarrama
 (es) Fuerza y sensatez del deseo (1974), Editorial Herder
 (es) Por un cristianismo sin mitos (1963), Fontanella, S.A.
-(es) O Coração e As suas Doenças. de Paul Chauchard
-Autres
-Teilhard – má na mysli Pierra Teilharda de Chardin – a optimismus kříže
+(es) O Coração e As suas Doenças. de Paul Chauchard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Chauchard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Chauchard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Teilhard – má na mysli Pierra Teilharda de Chardin – a optimismus kříže
 Traduction : L'embryologie du comportement, les débuts de la pensée humaine, par Arnold Gesell, en collaboration avec Catherine S. Amatruda.</t>
         </is>
       </c>
